--- a/testData_cucumber/UI/BAU_Regression/Datasheet.xlsx
+++ b/testData_cucumber/UI/BAU_Regression/Datasheet.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="6300" windowWidth="19200" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
-    <sheet name="Test_Data" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet1" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet2" r:id="rId3" sheetId="3"/>
+    <sheet name="Test_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="340">
   <si>
     <t>TC</t>
   </si>
@@ -1059,12 +1059,14 @@
   <si>
     <t>95</t>
   </si>
+  <si>
+    <t>TC001_Search and add product_TD1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1158,47 +1160,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1215,10 +1217,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1253,7 +1255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1288,7 +1290,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1382,21 +1384,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1413,7 +1415,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1465,100 +1467,100 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DI27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BF16" sqref="BF16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="82.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="69.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="15" max="20" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="23" max="24" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="26" max="36" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="40.0" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="7.42578125" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="45" max="51" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="53" max="56" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="65" max="67" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="69" max="69" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="70" max="71" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="72" max="73" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="75" max="75" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="76" max="76" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="77" max="79" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="80" max="80" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="81" max="81" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="82" max="84" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="85" max="85" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="86" max="87" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="88" max="88" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="89" max="89" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="90" max="90" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="93" max="95" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="99" max="99" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="103" max="103" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="104" max="104" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="106" max="106" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="107" max="107" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="109" max="109" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="110" max="110" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="111" max="111" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="1" max="1" width="82.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="69" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="20" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="36" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="40" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="7.44140625" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="7.109375" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="6.88671875" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="51" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="56" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="27.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="22.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="67" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="70" max="71" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="72" max="73" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="79" width="19" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="82" max="84" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="87" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="88" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="89" max="89" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="95" width="17" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="30" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="21.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="109" max="109" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="111" max="111" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:112" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +1895,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>289</v>
       </c>
@@ -2120,7 +2122,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>288</v>
       </c>
@@ -2369,7 +2371,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>290</v>
       </c>
@@ -2618,7 +2620,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>291</v>
       </c>
@@ -2853,7 +2855,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>292</v>
       </c>
@@ -3002,7 +3004,7 @@
       <c r="DF6" s="5"/>
       <c r="DG6" s="5"/>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>293</v>
       </c>
@@ -3141,7 +3143,7 @@
       <c r="DF7" s="5"/>
       <c r="DG7" s="5"/>
     </row>
-    <row customFormat="1" r="8" s="6" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:112" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>294</v>
       </c>
@@ -3391,7 +3393,7 @@
       </c>
       <c r="DH8" s="7"/>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>295</v>
       </c>
@@ -3664,7 +3666,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>296</v>
       </c>
@@ -3931,7 +3933,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>297</v>
       </c>
@@ -4180,7 +4182,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>298</v>
       </c>
@@ -4459,7 +4461,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>299</v>
       </c>
@@ -4736,7 +4738,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>300</v>
       </c>
@@ -4917,7 +4919,7 @@
       <c r="DF14" s="5"/>
       <c r="DG14" s="5"/>
     </row>
-    <row r="15" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>301</v>
       </c>
@@ -5158,7 +5160,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>302</v>
       </c>
@@ -5297,7 +5299,7 @@
       <c r="DF16" s="5"/>
       <c r="DG16" s="5"/>
     </row>
-    <row r="17" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>303</v>
       </c>
@@ -5440,7 +5442,7 @@
       <c r="DF17" s="5"/>
       <c r="DG17" s="5"/>
     </row>
-    <row r="18" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>304</v>
       </c>
@@ -5559,7 +5561,7 @@
       <c r="DF18" s="5"/>
       <c r="DG18" s="5"/>
     </row>
-    <row r="19" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>305</v>
       </c>
@@ -5678,7 +5680,7 @@
       <c r="DF19" s="5"/>
       <c r="DG19" s="5"/>
     </row>
-    <row r="20" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>306</v>
       </c>
@@ -5797,7 +5799,7 @@
       <c r="DF20" s="5"/>
       <c r="DG20" s="5"/>
     </row>
-    <row r="21" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>307</v>
       </c>
@@ -5916,7 +5918,7 @@
       <c r="DF21" s="5"/>
       <c r="DG21" s="5"/>
     </row>
-    <row r="22" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>308</v>
       </c>
@@ -6035,7 +6037,7 @@
       <c r="DF22" s="5"/>
       <c r="DG22" s="5"/>
     </row>
-    <row r="23" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>309</v>
       </c>
@@ -6154,7 +6156,7 @@
       <c r="DF23" s="5"/>
       <c r="DG23" s="5"/>
     </row>
-    <row r="24" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>310</v>
       </c>
@@ -6273,7 +6275,7 @@
       <c r="DF24" s="5"/>
       <c r="DG24" s="5"/>
     </row>
-    <row r="25" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>311</v>
       </c>
@@ -6392,7 +6394,7 @@
       <c r="DF25" s="5"/>
       <c r="DG25" s="5"/>
     </row>
-    <row r="26" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>312</v>
       </c>
@@ -6511,7 +6513,7 @@
       <c r="DF26" s="5"/>
       <c r="DG26" s="5"/>
     </row>
-    <row r="27" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>313</v>
       </c>
@@ -6628,98 +6630,103 @@
       <c r="DF27" s="5"/>
       <c r="DG27" s="5"/>
     </row>
+    <row r="28" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DG15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DF15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="74.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="69.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="13" max="18" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="21" max="22" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="24" max="34" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="40.0" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="7.42578125" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="43" max="49" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="51" max="54" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="63" max="65" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="67" max="67" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="68" max="69" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="70" max="71" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="73" max="73" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="75" max="77" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="78" max="78" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="79" max="79" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="80" max="82" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="83" max="83" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="84" max="85" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="86" max="86" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="87" max="87" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="88" max="88" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="89" max="89" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="90" max="90" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="91" max="93" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="97" max="97" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="103" max="103" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="104" max="104" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="106" max="106" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="107" max="107" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="109" max="109" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="1" max="1" width="74" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="69" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="18" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="34" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="40" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="7.44140625" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="7.109375" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="6.88671875" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="49" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="54" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="27.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="22.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="65" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="68" max="69" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="70" max="71" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="77" width="19" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="80" max="82" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="85" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="88" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="89" max="89" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="93" width="17" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="30" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="21.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="109" max="109" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:110" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7048,7 +7055,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7266,7 +7273,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
@@ -7478,7 +7485,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -7699,7 +7706,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -7909,7 +7916,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -7980,7 +7987,7 @@
       </c>
       <c r="BI6" s="3"/>
     </row>
-    <row r="7" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -8021,7 +8028,7 @@
         <v>137</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="6" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:110" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>154</v>
       </c>
@@ -8228,7 +8235,7 @@
       </c>
       <c r="DF8" s="7"/>
     </row>
-    <row r="9" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>175</v>
       </c>
@@ -8474,7 +8481,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>228</v>
       </c>
@@ -8709,7 +8716,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>238</v>
       </c>
@@ -8915,7 +8922,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>244</v>
       </c>
@@ -9166,7 +9173,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>257</v>
       </c>
@@ -9414,7 +9421,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -9518,7 +9525,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -9566,96 +9573,96 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DG17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="74.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="69.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="13" max="18" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="21" max="22" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="24" max="34" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="40.0" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="7.42578125" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="43" max="49" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="51" max="54" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="63" max="65" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="67" max="67" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="68" max="69" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="70" max="71" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="73" max="73" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="75" max="77" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="78" max="78" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="79" max="79" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="80" max="82" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="83" max="83" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="84" max="85" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="86" max="86" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="87" max="87" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="88" max="88" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="89" max="89" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="90" max="90" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="91" max="93" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="97" max="97" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="103" max="103" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="104" max="104" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="106" max="106" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="107" max="107" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="109" max="109" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="1" max="1" width="74" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="69" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="18" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="34" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="40" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="7.44140625" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="7.109375" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="6.88671875" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="49" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="54" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="27.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="22.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="65" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="68" max="69" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="70" max="71" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="77" width="19" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="80" max="82" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="85" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="88" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="89" max="89" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="93" width="17" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="30" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="21.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="109" max="109" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:110" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9984,7 +9991,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>274</v>
       </c>
@@ -10202,7 +10209,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>275</v>
       </c>
@@ -10414,7 +10421,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>279</v>
       </c>
@@ -10635,7 +10642,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>284</v>
       </c>
@@ -10845,7 +10852,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>283</v>
       </c>
@@ -10916,7 +10923,7 @@
       </c>
       <c r="BI6" s="3"/>
     </row>
-    <row r="7" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>281</v>
       </c>
@@ -10957,7 +10964,7 @@
         <v>137</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="6" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:110" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>287</v>
       </c>
@@ -11164,7 +11171,7 @@
       </c>
       <c r="DF8" s="7"/>
     </row>
-    <row r="9" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>276</v>
       </c>
@@ -11410,7 +11417,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>278</v>
       </c>
@@ -11645,7 +11652,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>285</v>
       </c>
@@ -11851,7 +11858,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>244</v>
       </c>
@@ -12102,7 +12109,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>277</v>
       </c>
@@ -12350,7 +12357,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>280</v>
       </c>
@@ -12454,7 +12461,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>282</v>
       </c>
@@ -12476,7 +12483,7 @@
       <c r="BE15" s="6"/>
       <c r="BF15" s="3"/>
     </row>
-    <row r="16" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>286</v>
       </c>
@@ -12498,7 +12505,7 @@
       <c r="BE16" s="6"/>
       <c r="BF16" s="3"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>270</v>
       </c>
@@ -12546,6 +12553,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testData_cucumber/UI/BAU_Regression/Datasheet.xlsx
+++ b/testData_cucumber/UI/BAU_Regression/Datasheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="341">
   <si>
     <t>TC</t>
   </si>
@@ -1060,7 +1060,10 @@
     <t>95</t>
   </si>
   <si>
-    <t>TC001_Search and add product_TD1</t>
+    <t>TC001_Skill Edit_TD1</t>
+  </si>
+  <si>
+    <t>TC002_Education Edit_TD1</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1105,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1118,6 +1121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,7 +1171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1195,6 +1204,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1475,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DH28"/>
+  <dimension ref="A1:DH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6631,8 +6643,13 @@
       <c r="DG27" s="5"/>
     </row>
     <row r="28" spans="1:111" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="22" t="s">
         <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
